--- a/coc/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/coc/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/magic/CJE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/coc/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B688FB-6582-41D8-B28D-7DC7136A362C}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D9DBFB-1446-4467-ACBB-5CAC039F36CB}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="135" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21276" yWindow="-2610" windowWidth="13242" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="牌堆内目录" sheetId="2" r:id="rId3"/>
-    <sheet name="颜色对应" sheetId="5" r:id="rId4"/>
+    <sheet name="颜色对应" sheetId="5" r:id="rId3"/>
+    <sheet name="牌堆内目录" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="454">
   <si>
     <t>Key</t>
   </si>
@@ -1087,6 +1087,310 @@
   </si>
   <si>
     <t>IMPLANTSUGGESTION/心理暗示术/MentalSuggestion</t>
+  </si>
+  <si>
+    <t>支配术</t>
+  </si>
+  <si>
+    <t>邪眼术</t>
+  </si>
+  <si>
+    <t>夏恩逐出术</t>
+  </si>
+  <si>
+    <t>消失术</t>
+  </si>
+  <si>
+    <t>深渊之息</t>
+  </si>
+  <si>
+    <t>DOMINATE/Dominate</t>
+  </si>
+  <si>
+    <t>EVILEYE/EvilEye</t>
+  </si>
+  <si>
+    <t>CASTOUTSHAN/CastOutShan</t>
+  </si>
+  <si>
+    <t>VANISH/Vanish</t>
+  </si>
+  <si>
+    <t>BREATHOFTHEDEEP/BreathoftheDeep</t>
+  </si>
+  <si>
+    <t>心跳停止术</t>
+  </si>
+  <si>
+    <t>STOPHEART/StopHeart</t>
+  </si>
+  <si>
+    <t>身体部件转移术</t>
+  </si>
+  <si>
+    <t>兽化人束缚术</t>
+  </si>
+  <si>
+    <t>占卜窗创造术</t>
+  </si>
+  <si>
+    <t>灵体猎手变身术</t>
+  </si>
+  <si>
+    <t>TRANSFERBODYPART/TransferBodyPart</t>
+  </si>
+  <si>
+    <t>BINDLOUP-GAROU/BindWere-Creature</t>
+  </si>
+  <si>
+    <t>CREATESCRYINGWINDOW/CreateScryingWindow</t>
+  </si>
+  <si>
+    <t>BECOMESPECTRALHUNTER/BecomeSpectralHunter</t>
+  </si>
+  <si>
+    <t>哈布沙暴发生术</t>
+  </si>
+  <si>
+    <t>苏莱曼之尘</t>
+  </si>
+  <si>
+    <t>精神交换术</t>
+  </si>
+  <si>
+    <t>精神转移术</t>
+  </si>
+  <si>
+    <t>魔力吸取术</t>
+  </si>
+  <si>
+    <t>生命觉察术</t>
+  </si>
+  <si>
+    <t>BRINGHABOOB/SANDSTORM/BringHaboob</t>
+  </si>
+  <si>
+    <t>DUSTOFSULEIMAN/DustofSuleiman</t>
+  </si>
+  <si>
+    <t>MINDEXCHANGE/MindExchange</t>
+  </si>
+  <si>
+    <t>MINDTANSFER/MindTransfer</t>
+  </si>
+  <si>
+    <t>POWERDRAIN/PowerDrain</t>
+  </si>
+  <si>
+    <t>SENSELIFE/SenseLife</t>
+  </si>
+  <si>
+    <t>施法用时：5轮</t>
+  </si>
+  <si>
+    <t>消耗：1点魔法值；1点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：即时</t>
+  </si>
+  <si>
+    <t>让目标的意志屈从于施法者的意志。施法者须和目标进行一次对抗检定并胜出，法术才能生效。若成功，目标必须服从施法者的命令，没有例外，直到下一个战斗轮结束为止。本法术只能影响单一个体，最大作用范围是10码。显然，命令必须要在目标的智力理解范围之内，并且如果命令和目标本能相悖（例如命令人类去飞行），法术可能会被破坏。只要施法者认为可行的话，支配术就可以反复施放任意多次，使得一名目标被连续不断地控制数分钟。本法术的每次施放都具有相同的消耗和限制。反复施放是即时的。</t>
+  </si>
+  <si>
+    <t>别名：巫师令、控制之咏、恶意支配、言于内声</t>
+  </si>
+  <si>
+    <t>消耗：10点魔法值；1D4点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：1轮</t>
+  </si>
+  <si>
+    <t>让一名目标遭受厄运的折磨。目标必须在施法者视野范围之内，但此时目标并不一定能感觉到邪眼术的影响，只是可能在邪眼术初次施放的时候感觉到奇怪的寒意和不安。施法成功后，目标的幸运检定成功率减半*。目标所有的属性和技能检定均得到一颗惩罚骰；他用枪时每当掷骰出75以上枪就会卡壳，用近战武器的时候每当掷骰在75以上武器就会损坏；召唤、束缚术的成功率减半。效果将持续到第二天的日出、或者施法者撤回法术、或者施法者被找到并流血（狠狠地打，打到出血为止）、或者目标死亡。本法术可以被“邪眼守卫术”(抵消。*注，如果使用了幸运的可选规则，目标也不能消耗和增加幸运点数。深层魔法：能够召唤克苏鲁神话更深层智慧和知识的人能够对多人（最多五名）使用本法术，他们必须在施法者的视野范围内。</t>
+  </si>
+  <si>
+    <t>别名：噩运之仪、诅咒术、黑暗妖术</t>
+  </si>
+  <si>
+    <t>消耗：10点魔法值；1+点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：1小时</t>
+  </si>
+  <si>
+    <t>本法术可以从活体寄主当中驱逐夏恩（夏盖虫族），寄主须在一个用马鞭草摆出的五英尺大小的五角星形区域当中。施法者损失1点理智值（如果对自己施放，施法者消耗2点理智值）。在仪式之后，五角星在接下来的十二小时之内可以保护人不受新的夏恩入侵。</t>
+  </si>
+  <si>
+    <t>别名：取出仪式、极恶夏盖的净化、五角守卫</t>
+  </si>
+  <si>
+    <t>施法者在一阵烟雾中消失，并在预定地点重新出现。该地点在创建一个“时空箱”时确定。时空箱准备完成后，施法者牺牲10点POW（一次性消费）并将他身体的一部分（血液、牙齿或指甲）放进箱子；若取出这些部分清空箱子，法术不会生效，巫师必须重新准备箱子（并再次支付法术消耗）。施法者在读出某个短语或打出某个手势之后，会立即传送到时空箱内部，不管它在什么地方。时空箱甚至可以在几百英里的距离之外。箱子可以在施法者不知情的情况下移动，可能会让旅行的人大吃一惊！每次用这种方式旅行需要消耗5点魔法值和1点理智值。</t>
+  </si>
+  <si>
+    <t>别名：巫师的出口、回返万全、身体蒸发术</t>
+  </si>
+  <si>
+    <t>消耗：5点魔法值；1点理智值；（一次性的10点POW）</t>
+  </si>
+  <si>
+    <t>消耗：8点魔法值；1D6点理智值</t>
+  </si>
+  <si>
+    <t>目标的肺里会灌满海水，可以造成痛苦的溺亡。目标必须在施法者的视野内。在1轮的咒语默念之后，施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。若施法者胜出，目标开始溺水——倒地并被海水窒息，每轮受到1D8点伤害。目标须在每轮受伤害后进行一次极难CON（≤1/5CON）检定；如果检定成功，表明咸水已经被排出，法术效果终止。注意施法者可以在任何时候中止法术的效果。</t>
+  </si>
+  <si>
+    <t>别名：蓝色海洋的通货、水手的诅咒、盐卤之吻</t>
+  </si>
+  <si>
+    <t>消耗：14点魔法值；2D6点理智值</t>
+  </si>
+  <si>
+    <t>令法术的目标经受一次严重的心脏病发作。虽然本法术只需要一轮去施放，但施法者必须花掉至少一天的时间来准备本法术（在法术施放前一星期）。准备过程包括一场认真的仪式，施法者在仪式中净化自己的身心。净化过后，法术可以在随后七天的任何时候施放。施法者须和目标进行一次POW对抗检定并胜出，法术才能生效，且目标须在施法者视野范围内。若成功，目标失去4D6点耐久值，若还活着也会在2D10轮当中失去战斗能力。深层魔法：在本法术的一个恐怖扭曲版本中，目标尚在搏动的心脏会被召唤到施法者的手中（最大距离100尺）。必死无疑。</t>
+  </si>
+  <si>
+    <t>别名：抓攫不信者跳动的心脏、血手术、死之真言</t>
+  </si>
+  <si>
+    <t>消耗：10+点魔法值；5点POW；1D10点理智值</t>
+  </si>
+  <si>
+    <t>能让施法者在两具身体之间转移身体部件。没有互换器官或肢体的限制。如果目标不同意，则施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。本法术包括附魔过程，制造一条魔法线来缝合转移的身体部件。大多数肢体需要投入10点魔法值，转移越复杂，消耗越大（因此转移双腿需要20点魔法值，转移头颅和大脑需要100点魔法值）。若其中一具对象是尸体（如施法者想要把尸体的手转移到活物身上），则消耗由5点POW上升到10点POW。若要把身体部件还给原主（在通过本法术转移了身体部件以后），需要施放“反转移术”。深层魔法：熟练运用本法术的皮肤兄弟会监视某些目标，图谋珍贵的解剖材料，如田径运动员的腿、拳击手的拳头、潜水员的肺、钢琴家的手等等。本法术具有的邪恶变体不可尽述。</t>
+  </si>
+  <si>
+    <t>别名：血肉收藏、皮肤交易</t>
+  </si>
+  <si>
+    <t>消耗：14点魔法值；2D4点理智值</t>
+  </si>
+  <si>
+    <t>移除兽化人控制它变形能力的愿望，在短时间内迫使它此后以变化的形态去生活。被这样束缚的生物将除去人性，永远变成野兽。本法术一经施放，目标即失去选择何时变身的能力。它将变得越来越像野兽，愤怒、恐惧、性欲和饥饿之类的兽性本能都增强。变形将不再是有意的选择。效果随着时间而加强。在1D6天之后，目标的一半时间都是动物状态。再1D6天之后，这个生物的人性已经变得毫无吸引力且乏味，它将从此作为野兽生活下去。要施放本法术，施法者需要一碗固体的银子或者金子。碗的内表面必须刻画有本法术的咒语。施法者还要在施法地点的地面上刻画一个圆形的保护圈，围绕保护圈点燃六支蜡烛。当蜡烛点亮以后，施法者就不可以离开保护圈。至少要在碗里滴入六滴人类鲜血。在碗里放入目标的所有物来确定目标（毛发、指甲、个人物品等等）。可以一次指定多名目标。必须不间断地咏唱咒语一个小时，如果一切顺利，碗会短暂发光，法术便生效了。施法之后，目标将因为兽性的需求经历不断增长的恐惧和欲望，在它知道自己发生了什么之前，不损失理智值；知道了以后，每天损失1D3+1点理智值，直到POW的五分之一天以后，它失去自己所有的理智值（人类形态下的），并永久疯狂。</t>
+  </si>
+  <si>
+    <t>别名：物种之牢狱、狼人束缚术</t>
+  </si>
+  <si>
+    <t>消耗：98 点魔法值；50 点 POW；每次 1D3 点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：很多星期</t>
+  </si>
+  <si>
+    <t>附魔一块玻璃，可以创造一扇魔法窗户，巫师通过它可以观察过去。每次使用玻璃需要观察者损失 1D3 点理智值，并且在观察到某些怪物时还要单独处理理智值损失。要创造一扇占卜窗，施法者必须用 50 点POW来附魔一扇透明的观察玻璃。在附魔玻璃时，它必须指明过去的精确时间，这个时间是相对于玻璃创造时刻的。例如，可以说“800 年以前”，但不能说“公元前 1125 年”。在玻璃附魔锚定完成之后，须再附魔 98 块昂贵的彩色玻璃，每块都需要 1 点魔法值，仔细安装成几何形状的锦砖图案，透明玻璃在中央的位置。完成以后，中央的玻璃会显示它放置的位置的景象（只不过是过去的某个时间）。观察位置可以改变，每移动 100 英里（不足进位）需要消费 1 点魔法值并专注 5 分钟。占卜窗的缺点显而易见：特定的场景只能观察一次，因为窗两边的时间都在流逝；并且窗子必须设定在事件发生的位置。占卜窗也有着天然的危险。任何被观察的智能生物都可以通过一次困难的 POW 检定发现自己被观察了。发现了以后，这个生物（如果可以的话）会马上隔着窗子施放法术，包括召唤术、请神术，这可以让窗子的观察者一侧出现怪物！</t>
+  </si>
+  <si>
+    <t>别名：过去之事的视野创造术、历史之鉴、时代的玻璃</t>
+  </si>
+  <si>
+    <t>消耗：16点魔法值；10点POW；3D6点理智值</t>
+  </si>
+  <si>
+    <t>施法者将一名自愿的目标转化成一头不可见的、可怕的人形怪物，它可以守卫、追击或者攻击。本法术需要一尊特制的小塑像、数种动物的血液，并且要法术目标失去所有的理智值。目标会被永久转变并且完全不朽。灵体猎手和小塑像之间会产生联系，它不能走得离塑像所在的位置太远。如果破坏了小塑像，该生物将被驱散；但它经过一个星期以后能（魔法地）重建一个新的小塑像。如果在破坏小塑像的同时说出了“遣散之咏(ChantofDismissal)”，灵体猎手将被永久驱逐。灵体猎手的信息请查看附近的边栏。备注：据传，生活在莫哈维沙漠当中的霍特奇克族人知道“遣散之咏”（他们也知道如何创造灵体猎手），据说在霍特奇克族消失之前，“遣散之咏”至少还被一名来访者转抄过。深层魔法：若将投入法术的POW增加到32点，则巫师可以创造一头更像怪物的灵体猎手，STR、CON、SIZ和耐久值均加倍。</t>
+  </si>
+  <si>
+    <t>别名：召唤伏行的卫士</t>
+  </si>
+  <si>
+    <t>消耗：20点魔法值；1D4点理智值</t>
+  </si>
+  <si>
+    <t>施法者召唤自然的力量，聚集强力的旋风。在沙漠或者海滨沙丘上，旋风能产生沙尘暴的效果。本法术的各种变体似乎都是基于各地的地理和信仰而作的，每个版本中施法者都会召唤不同的神话神祇，诸如阿蒙-戈尔洛斯(Amon-Gorloth)，修德·梅尔或者伊塔库亚等。旋风大概20英里围圆，内部风速每小时30英里（七级），阵风风速大约是其二倍（十一级）。在风暴中的角色，根据行动不同，要得到相应的惩罚和难度等级提升。深层魔法：可以召唤更强、更有破坏力的风暴，可能造成巨大的灾难，当然法术的消耗也要相应增加。</t>
+  </si>
+  <si>
+    <t>别名：沙暴发生术、巨灵的血腥挠痒、伏木之手</t>
+  </si>
+  <si>
+    <t>消耗：每3剂10点魔法值</t>
+  </si>
+  <si>
+    <t>施法用时：24+小时（使用时每剂需1轮）</t>
+  </si>
+  <si>
+    <t>制造一种灰绿色的粉末，可以伤害来自其他存在位面的非自然的生物。这种粉末需要从至少2000年历史的木乃伊上取得灰尘，每具木乃伊足够制作三份魔法粉尘。原料还包括乳香、硫磺和硝石。依施法者的能力以及原料的获取的不同，制造这种混合物最少需要24小时，最多需要很多天。抛撒它的时候必须同时吟唱咒语。如果非地球原生的生物被这种粉尘撒中，每被一剂粉尘撒中，就损失1D20点耐久值（无视护甲）。撒出一剂粉尘需要一轮。根据K掷」或「克苏鲁神话」检定。这种粉末仅对非地球的和外星的生物有效，因此它可以伤害空鬼、犹格-索托斯和米-戈，但对修格斯、食尸鬼和深潜者无效。</t>
+  </si>
+  <si>
+    <t>别名：埃及粉、死者的保护</t>
+  </si>
+  <si>
+    <t>消耗：可变的魔法值；1D3点理智值</t>
+  </si>
+  <si>
+    <t>可以让施法者和另一人交换精神。施法者首次施放本法术时，必须消耗和目标的五分之一相同的魔法值。以后每次对同一目标施放时，消耗都会减少1点，最少为1点。目标必须知道施法者且二者间要具有强烈的感情纽带（如爱情）。若这种感情消失了，交换将不能进行。恢复感情会恢复交换可能。本法术可以在任意范围施放。施法者须和目标进行一次对抗检定并胜出，法术才能生效（法术施放的次数越多，交换越容易，因此法术的消耗降低了，如前文所述）。当施放本法术所需魔法值减少到1后，就不需进行施法者只需要强大的精神力量就可以任意交换精神。施法者一开始只能在目标身体里停留最多几分钟，但会（随着反复使用本法术）逐渐增加。当魔法值消耗降到1时，施法者就能不定时地停留了。注意目标在被交换到他人身体中时，需要进行理智检定（根据情况，1/1D3点或更多）。深层魔法：若将法术的魔法值消耗加倍，施法者可以让其他两个人互相交换精神。不需要有感情纽带，但两个人必须在同一位置（两个人之间以及他们和施法者之间都不能超过20英尺）。施法者须消耗等同于目标每人和的五分之一（此消耗重复施放不减少）。施法用时是可变的，通常是1D10+10分钟，不过根据KP裁定可以加长。逆向施放本法术可以让精神返回到正确的身体里。</t>
+  </si>
+  <si>
+    <t>别名：反之亦然咒、交换仪式、借人皮囊作衣裳</t>
+  </si>
+  <si>
+    <t>消耗：10点魔法值；1D10点理智值</t>
+  </si>
+  <si>
+    <t>以上本法术威力强大，能让施法者和目标永久交易精神，可能是用目标的身体来为自己续命。施法者须和目标进行一次对抗检定并胜出，法术才能生效。若成功，施法者失去1D10点理智值，目标失去2D10点理智值。若交换失败，施法者必须立即重新施法（消耗10点以上魔法值），不然他的精神就会消散在永恒之中。转换开始后就不能停止。施法成功意味着施法者永久掌控了目标的身体。他原来的身体现在成了无生命的躯壳。至于目标的精神，有推测认为会从身体中被放逐而死去；但也有些线索表明它仍留在原来的身体内，屈服于施法者的精神，困在永久的恐怖疯狂状态当中。深层魔法：巫师的黑暗意志是强大的力量，常常会超越完全的死亡。害怕死亡或渴望长寿的巫师可能会在施放“精神转移术”之前准备许多年。这些准备工作常与一些个人物品有关（如塑像和日记），法术的关键会在这些物品中等待让它实现的合适条件。通常这些关键是施法者的后裔子孙，在无意之中激活了法术。</t>
+  </si>
+  <si>
+    <t>别名：凡人的交易、无休止的血之活力、灵魂占据术</t>
+  </si>
+  <si>
+    <t>消耗：1D8点理智值</t>
+  </si>
+  <si>
+    <t>施法用时：2轮</t>
+  </si>
+  <si>
+    <t>从一名目标身上吸取魔法值。施法者须和目标进行一次POW对抗检定并胜出，法术才能生效。若施法者胜出，目标损失1D6点魔法值，增加给施法者；若施法者未能击败目标，他会失去1D6点魔法值给目标。如果魔法值已枯竭，则法术会转而吸取耐久值（如果所有耐久值被吸尽，目标将昏迷——本法术没有杀死目标的能力）。深层魔法：钻研黑暗学识的人对力量的渴求极度强烈。熟稔魔法的巫师会从目标身上吸取POW而非魔法值。</t>
+  </si>
+  <si>
+    <t>别名：生命力吸取术、尼安贝的仪式、啜饮魔力的灵丹</t>
+  </si>
+  <si>
+    <t>施法用时：1到5轮（由搜索的区域决定）</t>
+  </si>
+  <si>
+    <t>可以让施法者侦测特定地点的生命迹象。法术的范围大约是一栋房子的大小。施法者必须在场。法术可以让施法者区分物种（如狗或人），但无法辨认特定的人物。施法者可以侦测生命迹象并找到大概地点，但无法找到精确的位置。</t>
+  </si>
+  <si>
+    <t>别名：直感他人的存在、定位生命共振</t>
+  </si>
+  <si>
+    <t>コスト：1MP、1正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：瞬時</t>
+  </si>
+  <si>
+    <t>別名：魔術師の命令、憑依の詠唱、災いの影響</t>
+  </si>
+  <si>
+    <t>対象の意思を曲げて術者の意志の通りにさせることができる。対抗POWロールが必要。</t>
+  </si>
+  <si>
+    <t>コスト：10MP、1d4正気度ポイント</t>
+  </si>
+  <si>
+    <t>必要ラウンド：1R</t>
+  </si>
+  <si>
+    <t>別名：薄幸の儀礼、暗き呪い、魔女の呪い</t>
+  </si>
+  <si>
+    <t>対象の幸運ロールとDEXロールの成功率を1/2にし、能力値ロールにペナルティダイスを一つ付ける。射撃は75%以上でジャミングする。召喚/従属呪文の成功率が1/2になる。</t>
+  </si>
+  <si>
+    <t>シャン（シャガイからの昆虫）を生きている宿主から追い出す呪文。</t>
+  </si>
+  <si>
+    <t>コスト：8MP、1d6正気度ポイント</t>
+  </si>
+  <si>
+    <t>別名：大海の渦、水夫の呪い、塩水のキス</t>
+  </si>
+  <si>
+    <t>対象の体を海水で満たし、潜在的に溺れるような不快な死をもたらす。対抗POWロールが必要で成功すれば毎ラウンド1d8のダメージを与える。</t>
+  </si>
+  <si>
+    <t>この呪文の対象は突然激しい心臓発作に襲われ耐久力を失う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呪文の使い手がふわっと煙のように消えたり、あるいは前もって準備しておいた箱の側に瞬時に戻ってきたりできる呪文。
+</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1435,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF666666"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1201,7 +1504,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1216,9 +1519,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1508,19 +1813,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26171875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1572,7 +1877,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1580,7 +1885,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1636,7 +1941,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1652,7 +1957,7 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>344</v>
       </c>
     </row>
@@ -1668,7 +1973,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1684,7 +1989,7 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1692,7 +1997,7 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1700,7 +2005,7 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>248</v>
       </c>
     </row>
@@ -1740,7 +2045,7 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1764,7 +2069,7 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1772,7 +2077,7 @@
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1780,7 +2085,7 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1796,7 +2101,7 @@
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1804,7 +2109,7 @@
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1820,7 +2125,7 @@
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>346</v>
       </c>
     </row>
@@ -1828,7 +2133,7 @@
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1836,7 +2141,7 @@
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1844,7 +2149,7 @@
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1852,7 +2157,7 @@
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1860,7 +2165,7 @@
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>348</v>
       </c>
     </row>
@@ -1868,7 +2173,7 @@
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1876,7 +2181,7 @@
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1884,7 +2189,7 @@
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>349</v>
       </c>
     </row>
@@ -1892,7 +2197,7 @@
       <c r="A45" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1916,7 +2221,7 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1924,7 +2229,7 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1932,7 +2237,7 @@
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="10" t="s">
         <v>213</v>
       </c>
     </row>
@@ -1940,7 +2245,7 @@
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1948,7 +2253,7 @@
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1956,7 +2261,7 @@
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1964,7 +2269,7 @@
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1980,7 +2285,7 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="10" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1988,7 +2293,7 @@
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1996,7 +2301,7 @@
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2872,111 +3177,496 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="22" width="9.15625" style="12"/>
+    <col min="25" max="16384" width="9.15625" style="12"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="D3" t="s">
+    <row r="3" spans="1:20">
+      <c r="D3" s="12" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
+      <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.7">
+      <c r="C4" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.7">
+      <c r="C5" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.7">
+      <c r="C6" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.7">
+      <c r="C7" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
+      <c r="E9" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
+      <c r="E15" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="C16" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>328</v>
       </c>
     </row>
@@ -2986,6 +3676,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9"/>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10"/>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="11"/>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:B203"/>
   <sheetViews>
@@ -2993,7 +3738,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
@@ -4017,59 +4762,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
-  <dimension ref="B2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="8"/>
-      <c r="C4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9"/>
-      <c r="C6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="11"/>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12"/>
-      <c r="C10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>